--- a/static/downloads/15 Bưu điện Trung tâm Long Biên.xlsx
+++ b/static/downloads/15 Bưu điện Trung tâm Long Biên.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TBC_127010</t>
+          <t>131070_THANHNB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>131070_THANHNB</t>
+          <t>131070_THANGNX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>131070_THANGNX</t>
+          <t>131070_THUYNT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>131070_THUYNT</t>
+          <t>131300_HANGNTT5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>131300_HANGNTT5</t>
+          <t>132500_MAINT3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>132500_MAINT3</t>
+          <t>127800_YENHNT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>127800_YENHNT</t>
+          <t>132400_HUONGNT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>132400_HUONGNT</t>
+          <t>113900_ANHNH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>113900_ANHNH</t>
+          <t>131000_PHUOCTBC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>131000_PHUOCTBC</t>
+          <t>131300_HANGTBC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>131300_HANGTBC</t>
+          <t>131600_TAMTBC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>131600_TAMTBC</t>
+          <t>132900_PHUONGTC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>132900_PHUONGTC</t>
+          <t>131001_MIENTBC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>131001_MIENTBC</t>
+          <t>131800_THANHTBC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>131800_THANHTBC</t>
+          <t>132200_THANHTBC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>132200_THANHTBC</t>
+          <t>132100_MITBC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>132100_MITBC</t>
+          <t>132400_HUONGTBC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>132400_HUONGTBC</t>
+          <t>132500_MAITBC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>132500_MAITBC</t>
+          <t>131710_THATBC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>131710_THATBC</t>
+          <t>125900_THUYTBC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>125900_THUYTBC</t>
+          <t>125656_HANHLTH</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>125656_HANHLTH</t>
+          <t>132617_HANGNTT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>132617_HANGNTT</t>
+          <t>128300_THUYTH</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>128300_THUYTH</t>
+          <t>113360_HANGTBC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>113360_HANGTBC</t>
+          <t>126414_GIANGNTH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>126414_GIANGNTH</t>
+          <t>114089_BAOCAO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>114089_BAOCAO</t>
+          <t>126414_TUPTC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>126414_TUPTC</t>
+          <t>133000_LOANNTT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>133000_LOANNTT</t>
+          <t>132617_THANHHTH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>132617_THANHHTH</t>
+          <t>131400_BINHLTT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>131400_BINHLTT</t>
+          <t>114089_TUPTC_BC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,22 +1144,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>114089_TUPTC_BC</t>
+          <t>113100_DUNGTT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>15_Bưu điện Trung tâm Long Biên</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>113100_DUNGTT</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>15_Bưu điện Trung tâm Long Biên</t>
         </is>
